--- a/data/long_razon/P50-Edad-long_razon.xlsx
+++ b/data/long_razon/P50-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>113,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-61,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,16; 272,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-80,44; -24,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 185,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 33,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 143,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 89,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,49; -14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 118,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 119,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 90,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 56,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 120,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 29,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 86,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 88,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 45,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 47,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-54,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 154,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 56,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 97,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 113,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,04; -37,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 104,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 102,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,41; -14,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 77,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 111,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 34,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 38,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 140,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 22,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 56,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 94,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 16,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 30,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-18,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 94,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 37,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 76,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 78,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,21; 7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 48,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 65,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 6,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 42,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-40,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 104,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 24,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 54,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 49,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,3; -8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 57,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -8,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 70,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 30,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,19; 53,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,7; -11,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 29,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,13; 52,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,52; -8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 22,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P50-Edad-long_razon.xlsx
+++ b/data/long_razon/P50-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>1.32866953355893</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4964734591356972</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3816712892174187</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1467855196800725</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1407936990755661</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.04413596754269526</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2625482480597489</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.6104287429850126</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2948037347664911</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.801274076212863</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.5475753172388267</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.3855777629396122</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.5015772289385886</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.09945732354631238</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.1588766636631372</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.4318871476188623</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7636376562080772</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2567465430384681</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.362989642626728</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5320518213261177</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3557253385998567</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5483530625704237</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.03014289196456845</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5917575182707447</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.09369989910381191</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1427012184025412</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.6005888460359813</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0.05162770013322442</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.3794629617960646</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.2485846472504905</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>2.885997499491863</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.0947093630795805</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.528120215888819</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.275269305908144</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.6600810029830571</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6947689939651918</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.1762941645244239</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.61655228277613</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.08285142648172066</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2.350190306051015</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.170981975876091</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>-0.08539948295888133</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1.152619043646339</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.3534759908774024</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.7971237818090956</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.3540876016327512</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06769906448275317</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.02378593017068629</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5582637587012604</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5828953041337018</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5157343263858807</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1488752728484812</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.276011385726719</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2907734974510131</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.1736211204202309</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.4333748644142681</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.03113119633540507</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.1220271632106644</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.1197432318256627</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.4127221670666582</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3034936208263837</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3699321934160037</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4095079403722498</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1909489975808764</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8565943559956902</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.01387048805821887</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.442422130387874</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1235017663112194</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5496332918728342</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5203418913406754</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.01340729323321847</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2885231618187223</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.2128488014701623</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2326948687103221</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.6691062391226587</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.28287947296189</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8306612499573311</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5877703252448943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.091709390345618</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.09231362696137732</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.366077698230041</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.3240666688192388</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.921591348357536</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.07550725781633309</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3884947676381749</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.078781877717791</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.3628987536261206</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.5521936772248676</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.8469047917047774</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>-0.09145713211444365</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.2692984354081661</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.006985624443617298</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2724429223869817</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2545626692771014</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.372137993667935</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.4752417891813521</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.5262644422905081</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.4860858947656604</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.3039912407776132</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.2443369567077101</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.3555157881449205</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.3311946538076615</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.375726732059309</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.2800371971437987</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>-0.309810920733077</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.28658099787233</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3839058334538201</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1730649457785887</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.507915262931865</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.6505195368286566</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.01505711635685184</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.6676379088153345</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.08144093801717019</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5024585559185971</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.5076702313189042</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.08164181104047996</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.484503149536873</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0.09553885928918547</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.4357917839409975</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.508026380469331</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.010704492063666</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5178655369663</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.8594605416448857</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.1083078192505871</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.02565053772154242</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.150173415837336</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.3179799144699254</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.9678929369388285</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.05376771381022975</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.1257848535442065</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.8744348649834913</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-0.1289232310286808</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.8837997167930011</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>-0.07757918478514296</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>-0.03979279647115541</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.4287461764152203</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.07838695321772887</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.06427185693846864</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.05910681258468296</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5361516176356711</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.6472108005341699</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.05636090315189105</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1368080902047475</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2031516716663488</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1095808655186524</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.539851553814828</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.06712520527793969</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.03858389852293979</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.08372439885720948</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.2018636048754642</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.0212910679885283</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3692512288327917</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.37521390851856</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2904119649834773</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.009681230312694992</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.181575833771418</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.309253397555048</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1596546662581113</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.4145975377600494</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.4226466939903401</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.1975938983453517</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2727042420048588</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1971813942175447</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.293689609130649</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.110956676106277</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.9476771607430434</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3013503715807795</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4019294356722102</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7435512411133062</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.416673661457817</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.252158741517374</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2681789129382542</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.491472030105198</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.08048664556742055</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2998175205570185</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.9423184888472526</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.1665899547526328</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.3063724340120938</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.214412483742527</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.712354704566093</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.239802170430504</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.02122725798002952</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.1417635221923817</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.1524280017556175</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.342925542673444</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.3375829491548728</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.2808107283105505</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.03009250670036286</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.05440405040566912</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.04219251002175848</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.2911578885748911</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.1568302909905834</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.07907483157086945</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.05259974768050216</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>-0.1705288006553711</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.154866220340961</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3315816972832711</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.1850945434933978</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4446261300534074</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.5936044272042849</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.06366639175521696</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.4918917963425921</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2548686457064085</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3282869051988201</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.3195700897707121</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.04362988874371499</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.3436239488851024</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.1499274105795686</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.2819443848265366</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.4007627195975593</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.8582397242860549</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.5491263085220678</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6736641179597369</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.3394534666836986</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.05544769143994195</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.963334018960192</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.04911243167566393</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.4271587468703656</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.6599394790694606</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.6531524620935827</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.6599632518456724</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.1149718092416975</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3538872375101379</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.3305210333589691</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.1521090314342267</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.1689126885565438</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.3936111804455376</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1524243954119183</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.4564857259531269</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.2740492083753951</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.03460462800594181</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.1197392020382491</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.4262654046169916</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.1836577318503265</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.5891207399745818</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.09822507141213611</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.1378056694503262</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>-0.3098371386885929</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.03815122996912787</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>-0.4661810157203395</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.2709154838615968</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.6666623900046297</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4261300325592809</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.2514199438124755</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.591180814258823</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2808109151315185</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.2405968858068774</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.6023003745994115</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5215409021042707</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.7903929181083383</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.1785514849480079</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.4129206504622333</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.4614074392466464</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.2927488481255781</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.6602425965189601</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.8395833492185888</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-0.004483753461836291</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.2896021677532587</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.650266238179427</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.2999934654635425</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.5338116375052849</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.6806076642318056</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>-0.1494025165042252</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.3552904589309746</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>-0.1760846958053039</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.4754229705534018</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.1779006507889195</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>-0.08566090133290674</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.4850685626511522</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>-0.1635546476485136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.3904560000097734</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1610591943795052</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.07212688606497393</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1048532404052962</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.2293762263757212</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.3269137304186622</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.2116503474159578</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1024685081058778</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.2190701228999531</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.1803999059003938</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.3581965230419519</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.1873492799438561</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.08758409870163432</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>-0.07170838212401959</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>-0.2059220238118482</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.1264448824408059</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.3194978802367944</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1187935249736378</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1201787475318527</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.4005597220998701</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.1468524967518476</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.3316417226294976</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.0242569034259674</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.3321120482533715</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.3309951977742604</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.1917197856683123</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.2883468859602696</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.02610095110839966</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.1808727526584271</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.3351673160542347</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.6853385607604033</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03300714643006529</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2821165617261077</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4321681642523815</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-0.03936865546958605</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.5502579583767777</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>-0.09019191782692081</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.2754243123755822</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.08329503411054483</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.0181972539746081</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.544730238214881</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>-0.07607710000698358</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.2282295756080335</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.08732976110644139</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>-0.07613471483510657</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
